--- a/DataQualityFramework/data/out/DiscrepancyReport_CRM.xlsx
+++ b/DataQualityFramework/data/out/DiscrepancyReport_CRM.xlsx
@@ -274,6 +274,72 @@
     <t>john.smith@gmail.com</t>
   </si>
   <si>
+    <t>Ms Krystle Kulseth</t>
+  </si>
+  <si>
+    <t>44-785-556-7991</t>
+  </si>
+  <si>
+    <t>Mrs Sar Maragret</t>
+  </si>
+  <si>
+    <t>4038-11-20</t>
+  </si>
+  <si>
+    <t>4038-11-21</t>
+  </si>
+  <si>
+    <t>44-795-551-8769,44-765-558-4808</t>
+  </si>
+  <si>
+    <t>Mrs Nicol Lowthert</t>
+  </si>
+  <si>
+    <t>44-755-552-2006</t>
+  </si>
+  <si>
+    <t>Ms Babbin Tiffani</t>
+  </si>
+  <si>
+    <t>44-735-559-7587</t>
+  </si>
+  <si>
+    <t>Alyson Haaz Mr</t>
+  </si>
+  <si>
+    <t>44-735-557-3619</t>
+  </si>
+  <si>
+    <t>Mrs Reichart Carlotta</t>
+  </si>
+  <si>
+    <t>1988-10-25</t>
+  </si>
+  <si>
+    <t>1988-10-26</t>
+  </si>
+  <si>
+    <t>44-775-559-0965</t>
+  </si>
+  <si>
+    <t>wyomi neles Ms</t>
+  </si>
+  <si>
+    <t>1993-03-04</t>
+  </si>
+  <si>
+    <t>1993-03-05</t>
+  </si>
+  <si>
+    <t>44-735-550-2117</t>
+  </si>
+  <si>
+    <t>Mable Grill Ms</t>
+  </si>
+  <si>
+    <t>44-765-559-8242 44-775-558-4131</t>
+  </si>
+  <si>
     <t>Volle Elbert</t>
   </si>
   <si>
@@ -394,72 +460,6 @@
     <t>44-755-555-8274</t>
   </si>
   <si>
-    <t>Ms Krystle Kulseth</t>
-  </si>
-  <si>
-    <t>44-785-556-7991</t>
-  </si>
-  <si>
-    <t>Mrs Sar Maragret</t>
-  </si>
-  <si>
-    <t>4038-11-20</t>
-  </si>
-  <si>
-    <t>4038-11-21</t>
-  </si>
-  <si>
-    <t>44-795-551-8769,44-765-558-4808</t>
-  </si>
-  <si>
-    <t>Mrs Nicol Lowthert</t>
-  </si>
-  <si>
-    <t>44-755-552-2006</t>
-  </si>
-  <si>
-    <t>Ms Babbin Tiffani</t>
-  </si>
-  <si>
-    <t>44-735-559-7587</t>
-  </si>
-  <si>
-    <t>Alyson Haaz Mr</t>
-  </si>
-  <si>
-    <t>44-735-557-3619</t>
-  </si>
-  <si>
-    <t>Mrs Reichart Carlotta</t>
-  </si>
-  <si>
-    <t>1988-10-25</t>
-  </si>
-  <si>
-    <t>1988-10-26</t>
-  </si>
-  <si>
-    <t>44-775-559-0965</t>
-  </si>
-  <si>
-    <t>wyomi neles Ms</t>
-  </si>
-  <si>
-    <t>1993-03-04</t>
-  </si>
-  <si>
-    <t>1993-03-05</t>
-  </si>
-  <si>
-    <t>44-735-550-2117</t>
-  </si>
-  <si>
-    <t>Mable Grill Ms</t>
-  </si>
-  <si>
-    <t>44-765-559-8242 44-775-558-4131</t>
-  </si>
-  <si>
     <t>Bockelmann Amalia</t>
   </si>
   <si>
@@ -976,6 +976,48 @@
     <t>44-795-557-8320</t>
   </si>
   <si>
+    <t>Stoneman Willa</t>
+  </si>
+  <si>
+    <t>44-765-557-6880</t>
+  </si>
+  <si>
+    <t>Mr Peter Jenkins</t>
+  </si>
+  <si>
+    <t>44-775-550-0270</t>
+  </si>
+  <si>
+    <t>Mr Denver Rotty</t>
+  </si>
+  <si>
+    <t>44-765-558-4808,44-765-558-4808</t>
+  </si>
+  <si>
+    <t>Mr Loren Sowinski</t>
+  </si>
+  <si>
+    <t>44-775-556-3227</t>
+  </si>
+  <si>
+    <t>Ms Sauber Candis</t>
+  </si>
+  <si>
+    <t>+447a01211963, 44 7700 900005</t>
+  </si>
+  <si>
+    <t>44-755-550-1466 44-775-558-4131</t>
+  </si>
+  <si>
+    <t>COLUMN_NOT_POPULATED(GD)INVALID_MOBILE_PHONE_SYNTAX-(1) NOT_CORRECT_START_OF_MOBILE_PHONE-(2) NOT_CORRECT_START_OF_MOBILE_PHONE-(3) NOT_CORRECT_START_OF_MOBILE_PHONE-(4) INVALID_MOBILE_NUMBER_STRUCTURE(Mobile)</t>
+  </si>
+  <si>
+    <t>Mrs Valorie Finnel</t>
+  </si>
+  <si>
+    <t>44-755-552-9595</t>
+  </si>
+  <si>
     <t>Aleshia Kaszton</t>
   </si>
   <si>
@@ -1166,48 +1208,6 @@
   </si>
   <si>
     <t>44-785-550-7076</t>
-  </si>
-  <si>
-    <t>Stoneman Willa</t>
-  </si>
-  <si>
-    <t>44-765-557-6880</t>
-  </si>
-  <si>
-    <t>Mr Peter Jenkins</t>
-  </si>
-  <si>
-    <t>44-775-550-0270</t>
-  </si>
-  <si>
-    <t>Mr Denver Rotty</t>
-  </si>
-  <si>
-    <t>44-765-558-4808,44-765-558-4808</t>
-  </si>
-  <si>
-    <t>Mr Loren Sowinski</t>
-  </si>
-  <si>
-    <t>44-775-556-3227</t>
-  </si>
-  <si>
-    <t>Ms Sauber Candis</t>
-  </si>
-  <si>
-    <t>+447a01211963, 44 7700 900005</t>
-  </si>
-  <si>
-    <t>44-755-550-1466 44-775-558-4131</t>
-  </si>
-  <si>
-    <t>COLUMN_NOT_POPULATED(GD)INVALID_MOBILE_PHONE_SYNTAX-(1) NOT_CORRECT_START_OF_MOBILE_PHONE-(2) NOT_CORRECT_START_OF_MOBILE_PHONE-(3) NOT_CORRECT_START_OF_MOBILE_PHONE-(4) INVALID_MOBILE_NUMBER_STRUCTURE(Mobile)</t>
-  </si>
-  <si>
-    <t>Mrs Valorie Finnel</t>
-  </si>
-  <si>
-    <t>44-755-552-9595</t>
   </si>
   <si>
     <t>Ms. Amy Coll O.D.</t>
@@ -2815,37 +2815,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>33.0</v>
+        <v>77.0</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="D14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>89</v>
-      </c>
       <c r="I14" s="0" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>28</v>
@@ -2854,7 +2851,7 @@
         <v>4.0</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>2.0</v>
@@ -2866,42 +2863,36 @@
         <v>20.0</v>
       </c>
       <c r="T14" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37.0</v>
+        <v>79.0</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>28</v>
@@ -2910,54 +2901,45 @@
         <v>4.0</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="T15" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>43.0</v>
+        <v>81.0</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>28</v>
@@ -2966,7 +2948,7 @@
         <v>4.0</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>2.0</v>
@@ -2978,39 +2960,33 @@
         <v>20.0</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>48.0</v>
+        <v>82.0</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>70</v>
+      <c r="L17" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>28</v>
@@ -3019,7 +2995,7 @@
         <v>4.0</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>2.0</v>
@@ -3031,31 +3007,34 @@
         <v>20.0</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>64.0</v>
+        <v>87.0</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="J18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>70</v>
+      </c>
       <c r="N18" s="0" t="s">
         <v>28</v>
       </c>
@@ -3063,51 +3042,51 @@
         <v>4.0</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>70.0</v>
+        <v>88.0</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>38</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>28</v>
@@ -3116,7 +3095,7 @@
         <v>4.0</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>2.0</v>
@@ -3128,33 +3107,27 @@
         <v>20.0</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>72.0</v>
+        <v>94.0</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>28</v>
@@ -3163,7 +3136,7 @@
         <v>4.0</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>2.0</v>
@@ -3175,39 +3148,24 @@
         <v>20.0</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>73.0</v>
+        <v>100.0</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="0" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>28</v>
@@ -3216,7 +3174,7 @@
         <v>4.0</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>2.0</v>
@@ -3228,39 +3186,42 @@
         <v>20.0</v>
       </c>
       <c r="T21" s="0" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>77.0</v>
+        <v>33.0</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>125</v>
+        <v>107</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>68</v>
+        <v>110</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>28</v>
@@ -3269,7 +3230,7 @@
         <v>4.0</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>2.0</v>
@@ -3278,39 +3239,45 @@
         <v>50.0</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>79.0</v>
+        <v>37.0</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>130</v>
+        <v>117</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="J23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="M23" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>28</v>
@@ -3319,46 +3286,55 @@
         <v>4.0</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="T23" s="0" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>81.0</v>
+        <v>43.0</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>108</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>132</v>
+        <v>122</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="N24" s="0" t="s">
         <v>28</v>
       </c>
@@ -3366,7 +3342,7 @@
         <v>4.0</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>2.0</v>
@@ -3375,36 +3351,42 @@
         <v>50.0</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T24" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>82.0</v>
+        <v>48.0</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>59</v>
+        <v>126</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>38</v>
+        <v>127</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>39</v>
+      <c r="M25" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>28</v>
@@ -3413,7 +3395,7 @@
         <v>4.0</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>2.0</v>
@@ -3422,89 +3404,86 @@
         <v>50.0</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T25" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>87.0</v>
+        <v>64.0</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>135</v>
+        <v>128</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="0" t="s">
+      <c r="N26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P26" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>56</v>
-      </c>
       <c r="Q26" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="T26" s="0" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>88.0</v>
+        <v>70.0</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>137</v>
+        <v>132</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="J27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>38</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>28</v>
@@ -3513,7 +3492,7 @@
         <v>4.0</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>2.0</v>
@@ -3522,30 +3501,36 @@
         <v>50.0</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T27" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>94.0</v>
+        <v>72.0</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>50</v>
+      <c r="I28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>28</v>
@@ -3554,7 +3539,7 @@
         <v>4.0</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>2.0</v>
@@ -3563,28 +3548,43 @@
         <v>50.0</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T28" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>100.0</v>
+        <v>73.0</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>146</v>
       </c>
+      <c r="I29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="N29" s="0" t="s">
         <v>28</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>4.0</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>2.0</v>
@@ -3601,10 +3601,10 @@
         <v>50.0</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -3648,7 +3648,7 @@
         <v>4.0</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>2.0</v>
@@ -3657,10 +3657,10 @@
         <v>50.0</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T30" s="0" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -3683,7 +3683,7 @@
         <v>156</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="M31" s="0" t="s">
         <v>40</v>
@@ -3736,7 +3736,7 @@
         <v>4.0</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>2.0</v>
@@ -3745,10 +3745,10 @@
         <v>50.0</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T32" s="0" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -3759,7 +3759,7 @@
         <v>160</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>161</v>
@@ -3777,7 +3777,7 @@
         <v>4.0</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>2.0</v>
@@ -3786,10 +3786,10 @@
         <v>50.0</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -3901,7 +3901,7 @@
         <v>75.0</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="T35" s="0" t="s">
         <v>174</v>
@@ -4016,7 +4016,7 @@
         <v>75.0</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="T37" s="0" t="s">
         <v>174</v>
@@ -4125,7 +4125,7 @@
         <v>75.0</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="T39" s="0" t="s">
         <v>188</v>
@@ -4195,7 +4195,7 @@
         <v>193</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>194</v>
@@ -4243,7 +4243,7 @@
         <v>75.0</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T41" s="0" t="s">
         <v>197</v>
@@ -4275,7 +4275,7 @@
         <v>202</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J42" s="0" t="s">
         <v>26</v>
@@ -4305,7 +4305,7 @@
         <v>75.0</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="T42" s="0" t="s">
         <v>203</v>
@@ -4364,7 +4364,7 @@
         <v>75.0</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="T43" s="0" t="s">
         <v>174</v>
@@ -4417,7 +4417,7 @@
         <v>75.0</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="T44" s="0" t="s">
         <v>188</v>
@@ -4431,7 +4431,7 @@
         <v>213</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>214</v>
@@ -4470,7 +4470,7 @@
         <v>75.0</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T45" s="0" t="s">
         <v>197</v>
@@ -4526,7 +4526,7 @@
         <v>75.0</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T46" s="0" t="s">
         <v>197</v>
@@ -4588,7 +4588,7 @@
         <v>75.0</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="T47" s="0" t="s">
         <v>227</v>
@@ -4647,7 +4647,7 @@
         <v>50.0</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="T48" s="0" t="s">
         <v>234</v>
@@ -4703,7 +4703,7 @@
         <v>75.0</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="T49" s="0" t="s">
         <v>188</v>
@@ -4762,7 +4762,7 @@
         <v>75.0</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T50" s="0" t="s">
         <v>197</v>
@@ -4818,7 +4818,7 @@
         <v>75.0</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T51" s="0" t="s">
         <v>197</v>
@@ -4880,7 +4880,7 @@
         <v>50.0</v>
       </c>
       <c r="S52" s="0" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="T52" s="0" t="s">
         <v>234</v>
@@ -4942,7 +4942,7 @@
         <v>50.0</v>
       </c>
       <c r="S53" s="0" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="T53" s="0" t="s">
         <v>257</v>
@@ -5001,7 +5001,7 @@
         <v>50.0</v>
       </c>
       <c r="S54" s="0" t="n">
-        <v>27.0</v>
+        <v>17.0</v>
       </c>
       <c r="T54" s="0" t="s">
         <v>234</v>
@@ -5057,7 +5057,7 @@
         <v>50.0</v>
       </c>
       <c r="S55" s="0" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="T55" s="0" t="s">
         <v>267</v>
@@ -5139,7 +5139,7 @@
         <v>273</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>26</v>
@@ -5163,7 +5163,7 @@
         <v>50.0</v>
       </c>
       <c r="S57" s="0" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="T57" s="0" t="s">
         <v>267</v>
@@ -5192,7 +5192,7 @@
         <v>277</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>26</v>
@@ -5216,7 +5216,7 @@
         <v>50.0</v>
       </c>
       <c r="S58" s="0" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="T58" s="0" t="s">
         <v>278</v>
@@ -5269,7 +5269,7 @@
         <v>50.0</v>
       </c>
       <c r="S59" s="0" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="T59" s="0" t="s">
         <v>283</v>
@@ -5322,7 +5322,7 @@
         <v>50.0</v>
       </c>
       <c r="S60" s="0" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="T60" s="0" t="s">
         <v>287</v>
@@ -5378,7 +5378,7 @@
         <v>50.0</v>
       </c>
       <c r="S61" s="0" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="T61" s="0" t="s">
         <v>283</v>
@@ -5428,7 +5428,7 @@
         <v>50.0</v>
       </c>
       <c r="S62" s="0" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="T62" s="0" t="s">
         <v>283</v>
@@ -5484,7 +5484,7 @@
         <v>50.0</v>
       </c>
       <c r="S63" s="0" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="T63" s="0" t="s">
         <v>283</v>
@@ -5540,7 +5540,7 @@
         <v>50.0</v>
       </c>
       <c r="S64" s="0" t="n">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="T64" s="0" t="s">
         <v>283</v>
@@ -5596,7 +5596,7 @@
         <v>50.0</v>
       </c>
       <c r="S65" s="0" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="T65" s="0" t="s">
         <v>278</v>
@@ -5705,7 +5705,7 @@
         <v>50.0</v>
       </c>
       <c r="S67" s="0" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="T67" s="0" t="s">
         <v>287</v>
@@ -5731,7 +5731,7 @@
         <v>310</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>39</v>
@@ -5758,7 +5758,7 @@
         <v>50.0</v>
       </c>
       <c r="S68" s="0" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="T68" s="0" t="s">
         <v>278</v>
@@ -5858,7 +5858,7 @@
         <v>50.0</v>
       </c>
       <c r="S70" s="0" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="T70" s="0" t="s">
         <v>278</v>
@@ -5902,7 +5902,7 @@
         <v>50.0</v>
       </c>
       <c r="S71" s="0" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="T71" s="0" t="s">
         <v>287</v>
@@ -5910,37 +5910,37 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>34.0</v>
+        <v>78.0</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="D72" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H72" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>323</v>
-      </c>
       <c r="I72" s="0" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>26</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>28</v>
@@ -5949,7 +5949,7 @@
         <v>4.0</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q72" s="0" t="n">
         <v>1.0</v>
@@ -5958,45 +5958,45 @@
         <v>75.0</v>
       </c>
       <c r="S72" s="0" t="n">
-        <v>28.0</v>
+        <v>10.0</v>
       </c>
       <c r="T72" s="0" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>35.0</v>
+        <v>86.0</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>325</v>
+        <v>68</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>201</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J73" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K73" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>26</v>
+      <c r="M73" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>28</v>
@@ -6005,60 +6005,42 @@
         <v>4.0</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="Q73" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R73" s="0" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="S73" s="0" t="n">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="T73" s="0" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>153</v>
+        <v>323</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>28</v>
@@ -6066,58 +6048,52 @@
       <c r="O74" s="0" t="n">
         <v>4.0</v>
       </c>
+      <c r="P74" s="0" t="s">
+        <v>266</v>
+      </c>
       <c r="Q74" s="0" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R74" s="0" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="S74" s="0" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
+      </c>
+      <c r="T74" s="0" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>38.0</v>
+        <v>92.0</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L75" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P75" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O75" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="Q75" s="0" t="n">
         <v>1.0</v>
@@ -6129,45 +6105,30 @@
         <v>10.0</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>39.0</v>
+        <v>93.0</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>153</v>
+        <v>327</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L76" s="0" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>28</v>
@@ -6176,54 +6137,39 @@
         <v>4.0</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c r="Q76" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R76" s="0" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="S76" s="0" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>40.0</v>
+        <v>95.0</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>343</v>
+        <v>59</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>344</v>
+        <v>59</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L77" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="M77" s="0" t="s">
-        <v>70</v>
+        <v>332</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>28</v>
@@ -6232,7 +6178,7 @@
         <v>4.0</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="Q77" s="0" t="n">
         <v>1.0</v>
@@ -6241,36 +6187,36 @@
         <v>75.0</v>
       </c>
       <c r="S77" s="0" t="n">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="T77" s="0" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>153</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>201</v>
+        <v>336</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>38</v>
@@ -6279,10 +6225,7 @@
         <v>26</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>28</v>
@@ -6300,45 +6243,45 @@
         <v>75.0</v>
       </c>
       <c r="S78" s="0" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>59</v>
+        <v>339</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>28</v>
@@ -6347,7 +6290,7 @@
         <v>4.0</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q79" s="0" t="n">
         <v>1.0</v>
@@ -6356,39 +6299,51 @@
         <v>75.0</v>
       </c>
       <c r="S79" s="0" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="T79" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>44.0</v>
+        <v>36.0</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>353</v>
+        <v>153</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>68</v>
+        <v>342</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>68</v>
+        <v>343</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>345</v>
       </c>
       <c r="N80" s="0" t="s">
         <v>28</v>
@@ -6408,40 +6363,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>46.0</v>
+        <v>38.0</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>253</v>
+        <v>347</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>37</v>
+        <v>350</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K81" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>26</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>40</v>
@@ -6462,7 +6411,7 @@
         <v>75.0</v>
       </c>
       <c r="S81" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T81" s="0" t="s">
         <v>197</v>
@@ -6470,96 +6419,93 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>49.0</v>
+        <v>39.0</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
       <c r="F82" s="0" t="s">
         <v>44</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L82" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P82" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M82" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="N82" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P82" s="0" t="s">
-        <v>233</v>
-      </c>
       <c r="Q82" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R82" s="0" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="S82" s="0" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>84</v>
+        <v>359</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M83" s="0" t="s">
         <v>70</v>
@@ -6570,43 +6516,58 @@
       <c r="O83" s="0" t="n">
         <v>4.0</v>
       </c>
+      <c r="P83" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="Q83" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R83" s="0" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="S83" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
+      </c>
+      <c r="T83" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>61.0</v>
+        <v>41.0</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>169</v>
       </c>
+      <c r="J84" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="M84" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>28</v>
@@ -6614,40 +6575,55 @@
       <c r="O84" s="0" t="n">
         <v>4.0</v>
       </c>
+      <c r="P84" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="Q84" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R84" s="0" t="n">
-        <v>100.0</v>
+        <v>75.0</v>
       </c>
       <c r="S84" s="0" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="T84" s="0" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>66.0</v>
+        <v>42.0</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>371</v>
+        <v>59</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="N85" s="0" t="s">
         <v>28</v>
@@ -6665,7 +6641,7 @@
         <v>75.0</v>
       </c>
       <c r="S85" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T85" s="0" t="s">
         <v>197</v>
@@ -6673,31 +6649,31 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>68.0</v>
+        <v>44.0</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>158</v>
+        <v>367</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>374</v>
+        <v>177</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="M86" s="0" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="N86" s="0" t="s">
         <v>28</v>
@@ -6705,58 +6681,55 @@
       <c r="O86" s="0" t="n">
         <v>4.0</v>
       </c>
-      <c r="P86" s="0" t="s">
-        <v>233</v>
-      </c>
       <c r="Q86" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R86" s="0" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="S86" s="0" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="T86" s="0" t="s">
-        <v>376</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>71.0</v>
+        <v>46.0</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>68</v>
+        <v>370</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>68</v>
+        <v>371</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N87" s="0" t="s">
         <v>28</v>
@@ -6774,7 +6747,7 @@
         <v>75.0</v>
       </c>
       <c r="S87" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T87" s="0" t="s">
         <v>197</v>
@@ -6782,37 +6755,40 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>74.0</v>
+        <v>49.0</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>380</v>
+        <v>68</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>381</v>
+        <v>68</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>44</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>201</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>26</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="N88" s="0" t="s">
         <v>28</v>
@@ -6821,42 +6797,45 @@
         <v>4.0</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="Q88" s="0" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R88" s="0" t="n">
-        <v>75.0</v>
+        <v>50.0</v>
       </c>
       <c r="S88" s="0" t="n">
         <v>11.0</v>
       </c>
       <c r="T88" s="0" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>78.0</v>
+        <v>55.0</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>59</v>
+        <v>376</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>177</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J89" s="0" t="s">
         <v>29</v>
@@ -6865,10 +6844,10 @@
         <v>26</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>28</v>
@@ -6876,52 +6855,40 @@
       <c r="O89" s="0" t="n">
         <v>4.0</v>
       </c>
-      <c r="P89" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="Q89" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R89" s="0" t="n">
-        <v>75.0</v>
+        <v>100.0</v>
       </c>
       <c r="S89" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T89" s="0" t="s">
-        <v>270</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>86.0</v>
+        <v>61.0</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>68</v>
+        <v>380</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="L90" s="0" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>27</v>
@@ -6932,40 +6899,37 @@
       <c r="O90" s="0" t="n">
         <v>4.0</v>
       </c>
-      <c r="P90" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="Q90" s="0" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R90" s="0" t="n">
-        <v>50.0</v>
+        <v>100.0</v>
       </c>
       <c r="S90" s="0" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="T90" s="0" t="s">
-        <v>278</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>89.0</v>
+        <v>66.0</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>383</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>37</v>
@@ -6977,86 +6941,107 @@
         <v>4.0</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="Q91" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R91" s="0" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="S91" s="0" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="T91" s="0" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>92.0</v>
+        <v>68.0</v>
       </c>
       <c r="B92" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="H92" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="H92" s="0" t="s">
+      <c r="I92" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" s="0" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q92" s="0" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R92" s="0" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="S92" s="0" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T92" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="M92" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N92" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="0" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="P92" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q92" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R92" s="0" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="S92" s="0" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="T92" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>93.0</v>
+        <v>71.0</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>391</v>
       </c>
+      <c r="C93" s="0" t="s">
+        <v>158</v>
+      </c>
       <c r="D93" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G93" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H93" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>393</v>
+      <c r="I93" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>28</v>
@@ -7065,40 +7050,55 @@
         <v>4.0</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="Q93" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R93" s="0" t="n">
-        <v>50.0</v>
+        <v>75.0</v>
       </c>
       <c r="S93" s="0" t="n">
-        <v>30.0</v>
+        <v>5.0</v>
       </c>
       <c r="T93" s="0" t="s">
-        <v>394</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>95.0</v>
+        <v>74.0</v>
       </c>
       <c r="B94" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E94" s="0" t="s">
-        <v>59</v>
-      </c>
       <c r="G94" s="0" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>396</v>
       </c>
+      <c r="I94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="N94" s="0" t="s">
         <v>28</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>4.0</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="Q94" s="0" t="n">
         <v>1.0</v>
@@ -7115,10 +7115,10 @@
         <v>75.0</v>
       </c>
       <c r="S94" s="0" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="T94" s="0" t="s">
-        <v>270</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
@@ -7168,7 +7168,7 @@
         <v>75.0</v>
       </c>
       <c r="S95" s="0" t="n">
-        <v>19.0</v>
+        <v>14.0</v>
       </c>
       <c r="T95" s="0" t="s">
         <v>227</v>
@@ -7182,7 +7182,7 @@
         <v>401</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>402</v>
@@ -7224,7 +7224,7 @@
         <v>50.0</v>
       </c>
       <c r="S96" s="0" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="T96" s="0" t="s">
         <v>257</v>
@@ -7277,7 +7277,7 @@
         <v>75.0</v>
       </c>
       <c r="S97" s="0" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="T97" s="0" t="s">
         <v>188</v>
@@ -7336,7 +7336,7 @@
         <v>75.0</v>
       </c>
       <c r="S98" s="0" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="T98" s="0" t="s">
         <v>203</v>
@@ -7350,13 +7350,13 @@
         <v>412</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>201</v>
@@ -7386,7 +7386,7 @@
         <v>50.0</v>
       </c>
       <c r="S99" s="0" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="T99" s="0" t="s">
         <v>257</v>
@@ -7400,7 +7400,7 @@
         <v>414</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>415</v>
@@ -7430,7 +7430,7 @@
         <v>75.0</v>
       </c>
       <c r="S100" s="0" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="T100" s="0" t="s">
         <v>197</v>
@@ -7474,7 +7474,7 @@
         <v>75.0</v>
       </c>
       <c r="S101" s="0" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="T101" s="0" t="s">
         <v>188</v>
